--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Rankings/estadisticos_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_10pct/Rankings/estadisticos_Lineal_No_Estacionario_ARIMA.xlsx
@@ -46,19 +46,19 @@
     <t>Sieve Bootstrap</t>
   </si>
   <si>
+    <t>LSPMW</t>
+  </si>
+  <si>
     <t>LSPM</t>
   </si>
   <si>
     <t>DeepAR</t>
   </si>
   <si>
+    <t>MCPS</t>
+  </si>
+  <si>
     <t>AV-MCPS</t>
-  </si>
-  <si>
-    <t>MCPS</t>
-  </si>
-  <si>
-    <t>LSPMW</t>
   </si>
   <si>
     <t>EnCQR-LSTM</t>
@@ -465,28 +465,28 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>0.5491865430011136</v>
+        <v>0.5517173058659618</v>
       </c>
       <c r="C2">
-        <v>0.4806626847207394</v>
+        <v>0.4961724474128351</v>
       </c>
       <c r="D2">
-        <v>0.2785725658063506</v>
+        <v>0.2759063408434528</v>
       </c>
       <c r="E2">
-        <v>0.5072457971822258</v>
+        <v>0.5000864354080702</v>
       </c>
       <c r="F2">
-        <v>0.2091895337005355</v>
+        <v>0.2124345901737489</v>
       </c>
       <c r="G2">
-        <v>1.567212163263118</v>
+        <v>1.5672121632631</v>
       </c>
       <c r="H2">
-        <v>0.3296976285253637</v>
+        <v>0.3409967985205599</v>
       </c>
       <c r="I2">
-        <v>0.8474041853383047</v>
+        <v>0.8319739609952738</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -494,28 +494,28 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>0.9499616917794748</v>
+        <v>1.072725448542408</v>
       </c>
       <c r="C3">
-        <v>0.7483053341621561</v>
+        <v>0.8259273034385586</v>
       </c>
       <c r="D3">
-        <v>0.8246276797007318</v>
+        <v>0.9261688964886163</v>
       </c>
       <c r="E3">
-        <v>0.8680641407297526</v>
+        <v>0.8633792530484584</v>
       </c>
       <c r="F3">
-        <v>0.2142389830469155</v>
+        <v>0.2199169089196394</v>
       </c>
       <c r="G3">
-        <v>10.20859035826827</v>
+        <v>9.522739824346772</v>
       </c>
       <c r="H3">
-        <v>0.4850523604155281</v>
+        <v>0.5043979679770627</v>
       </c>
       <c r="I3">
-        <v>1.126027151971973</v>
+        <v>1.281722487332454</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>1.337388535290631</v>
+        <v>1.075887403236932</v>
       </c>
       <c r="C4">
-        <v>0.7142896818443244</v>
+        <v>0.8062623849634876</v>
       </c>
       <c r="D4">
-        <v>2.278010229501689</v>
+        <v>0.9456823241481621</v>
       </c>
       <c r="E4">
-        <v>1.703327170369865</v>
+        <v>0.8789788980733183</v>
       </c>
       <c r="F4">
-        <v>0.2390200990386082</v>
+        <v>0.2176572619423076</v>
       </c>
       <c r="G4">
-        <v>16.10037191849168</v>
+        <v>10.22920565954966</v>
       </c>
       <c r="H4">
-        <v>0.4545715534850659</v>
+        <v>0.5041129784751605</v>
       </c>
       <c r="I4">
-        <v>1.150862734932164</v>
+        <v>1.290002882355021</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -552,28 +552,28 @@
         <v>12</v>
       </c>
       <c r="B5">
-        <v>1.803763680707633</v>
+        <v>3.695230659141776</v>
       </c>
       <c r="C5">
-        <v>0.9381918626475518</v>
+        <v>0.7144251715775309</v>
       </c>
       <c r="D5">
-        <v>2.7431768548354</v>
+        <v>9.334923773241401</v>
       </c>
       <c r="E5">
-        <v>1.520807234437289</v>
+        <v>2.52620868203379</v>
       </c>
       <c r="F5">
-        <v>0.2611510482803225</v>
+        <v>0.2189351148423945</v>
       </c>
       <c r="G5">
-        <v>25.0958493858064</v>
+        <v>79.43850855558318</v>
       </c>
       <c r="H5">
-        <v>0.5755618495485366</v>
+        <v>0.4457102613469159</v>
       </c>
       <c r="I5">
-        <v>1.698167108391654</v>
+        <v>1.485823515575813</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>1.894804144796328</v>
+        <v>4.030571754325861</v>
       </c>
       <c r="C6">
-        <v>0.9605612111306709</v>
+        <v>1.112835599881052</v>
       </c>
       <c r="D6">
-        <v>3.318881656458662</v>
+        <v>8.226599176553945</v>
       </c>
       <c r="E6">
-        <v>1.751569768080388</v>
+        <v>2.041050173024372</v>
       </c>
       <c r="F6">
-        <v>0.2197661422786228</v>
+        <v>0.2295404397677371</v>
       </c>
       <c r="G6">
-        <v>31.36995509271803</v>
+        <v>70.81191720706144</v>
       </c>
       <c r="H6">
-        <v>0.5344549768184201</v>
+        <v>0.5774923323139355</v>
       </c>
       <c r="I6">
-        <v>1.866693432754727</v>
+        <v>3.418426346583738</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -610,28 +610,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>2.467652036887471</v>
+        <v>4.211710889606181</v>
       </c>
       <c r="C7">
-        <v>1.365350663495795</v>
+        <v>1.132533981937078</v>
       </c>
       <c r="D7">
-        <v>2.832148318829652</v>
+        <v>9.359992755180025</v>
       </c>
       <c r="E7">
-        <v>1.147709756681065</v>
+        <v>2.222373045186689</v>
       </c>
       <c r="F7">
-        <v>0.2158755701069843</v>
+        <v>0.2268012255928251</v>
       </c>
       <c r="G7">
-        <v>19.69734441437219</v>
+        <v>76.68925771153039</v>
       </c>
       <c r="H7">
-        <v>0.6923251554307996</v>
+        <v>0.5943554061472611</v>
       </c>
       <c r="I7">
-        <v>3.168112886687315</v>
+        <v>3.194299423905138</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -639,28 +639,28 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>3.875676665862682</v>
+        <v>4.992135481862261</v>
       </c>
       <c r="C8">
-        <v>3.303726712970349</v>
+        <v>2.368435913094119</v>
       </c>
       <c r="D8">
-        <v>2.827713965554616</v>
+        <v>7.787551749154233</v>
       </c>
       <c r="E8">
-        <v>0.7296052300908848</v>
+        <v>1.559964022901312</v>
       </c>
       <c r="F8">
-        <v>0.6885486276749041</v>
+        <v>0.2754790040293202</v>
       </c>
       <c r="G8">
-        <v>19.41021907600435</v>
+        <v>64.9032416646409</v>
       </c>
       <c r="H8">
-        <v>2.016666720162544</v>
+        <v>1.227460084459902</v>
       </c>
       <c r="I8">
-        <v>4.695853270651895</v>
+        <v>4.988411759042783</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -668,28 +668,28 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>5.125631466033672</v>
+        <v>10.74324044592336</v>
       </c>
       <c r="C9">
-        <v>2.977313212436236</v>
+        <v>4.171339286503853</v>
       </c>
       <c r="D9">
-        <v>6.265296809558213</v>
+        <v>16.76591505340349</v>
       </c>
       <c r="E9">
-        <v>1.222346329633105</v>
+        <v>1.560601304401179</v>
       </c>
       <c r="F9">
-        <v>0.3603665812815691</v>
+        <v>0.3328392365388754</v>
       </c>
       <c r="G9">
-        <v>44.83440109064081</v>
+        <v>110.4970172578648</v>
       </c>
       <c r="H9">
-        <v>1.594621069268531</v>
+        <v>1.961871369934931</v>
       </c>
       <c r="I9">
-        <v>6.4701308894862</v>
+        <v>11.46128501114631</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -697,28 +697,28 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>5.789483081472292</v>
+        <v>11.81980536374715</v>
       </c>
       <c r="C10">
-        <v>3.792263474596003</v>
+        <v>4.907937154504541</v>
       </c>
       <c r="D10">
-        <v>6.525397816045876</v>
+        <v>17.69238223689678</v>
       </c>
       <c r="E10">
-        <v>1.127112338738615</v>
+        <v>1.496842096161885</v>
       </c>
       <c r="F10">
-        <v>0.4346427058493235</v>
+        <v>0.4630082031605744</v>
       </c>
       <c r="G10">
-        <v>47.1522178103795</v>
+        <v>117.840047882372</v>
       </c>
       <c r="H10">
-        <v>2.089882164115739</v>
+        <v>2.521553252185619</v>
       </c>
       <c r="I10">
-        <v>7.286776738420802</v>
+        <v>12.43804500152764</v>
       </c>
     </row>
   </sheetData>
